--- a/source/resources/source-data/alert-sender.xlsx
+++ b/source/resources/source-data/alert-sender.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\source\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2BB7F6-5917-4555-A280-DF4468284E1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A33B8B-BCC2-475B-885E-4DDE89402562}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="116">
   <si>
     <t>Element</t>
   </si>
@@ -969,28 +969,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>114</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1128,11 +1137,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/source/resources/source-data/alert-sender.xlsx
+++ b/source/resources/source-data/alert-sender.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\source\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A33B8B-BCC2-475B-885E-4DDE89402562}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2435F8AC-7164-4008-A59F-E23D5246E6C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,13 @@
     <sheet name="resources" sheetId="4" r:id="rId4"/>
     <sheet name="ops" sheetId="5" r:id="rId5"/>
     <sheet name="interactions" sheetId="6" r:id="rId6"/>
-    <sheet name="sps" sheetId="7" r:id="rId7"/>
-    <sheet name="sp_combos" sheetId="8" r:id="rId8"/>
+    <sheet name="rest_interactions" sheetId="11" r:id="rId7"/>
+    <sheet name="sps" sheetId="7" r:id="rId8"/>
+    <sheet name="sp_combos" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">sp_combos!$B$1:$B$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">sps!$A$1:$AB$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sp_combos!$B$1:$B$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">sps!$A$1:$AB$92</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="118">
   <si>
     <t>Element</t>
   </si>
@@ -272,18 +273,6 @@
     <t>should_include</t>
   </si>
   <si>
-    <t>conf_AllergyIntolerance</t>
-  </si>
-  <si>
-    <t>conf_CarePlan</t>
-  </si>
-  <si>
-    <t>conf_CareTeam</t>
-  </si>
-  <si>
-    <t>conf_Condition</t>
-  </si>
-  <si>
     <t>conf_Device</t>
   </si>
   <si>
@@ -374,17 +363,10 @@
     <t>referencePolicy_conf</t>
   </si>
   <si>
-    <t>1. See the [General Security Considerations](security.html) section for requirements and recommendations.
-1. A server **SHALL** reject any unauthorized requests by returning an `HTTP 401` unauthorized response code.</t>
-  </si>
-  <si>
     <t>doc_DiagnosticReport</t>
   </si>
   <si>
     <t>alert-sender</t>
-  </si>
-  <si>
-    <t>This Section describes the expected capabilities of the Da Vinci Alert Sender actor which is responsibleresponsible for sending the alert, typically operated by the facility or organization where the event occurred. The complete list of FHIR profiles, RESTful operations, and search parameters supported by Da Vinci Alert Senders are defined.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-alerts/CapabilityStatement/hl7.fhir.us.davinci-alerts-0.0.0</t>
@@ -428,6 +410,32 @@
   </si>
   <si>
     <t xml:space="preserve"> US Core Implementation Guide STU 3</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>search-system</t>
+  </si>
+  <si>
+    <t>history-system</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>Whether as a direct push based transaction or via subscription notification, a common  `transaction`  type “Alert Bundle” is the FHIR object that is exchanged between the Da Vinci Alert Actors.</t>
+  </si>
+  <si>
+    <t>This Section describes the expected capabilities of the Da Vinci Alert Sender actor which is responsible for sending the alert, typically operated by the facility or organization where the event occurred. The complete list of FHIR profiles, RESTful operations, and search parameters supported by Da Vinci Alert Senders are defined.</t>
+  </si>
+  <si>
+    <t>1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
+1. For security considerations specific to this guide refer to the  [Security](security.html) page for requirements and recommendations.
+1. A server **SHALL** reject any unauthorized requests by returning an `HTTP 401` unauthorized response code.</t>
   </si>
 </sst>
 </file>
@@ -896,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -919,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" customHeight="1">
@@ -927,7 +935,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -935,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -951,7 +959,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="103.5" customHeight="1">
@@ -959,7 +967,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -971,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -993,10 +1001,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -1039,16 +1047,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -1172,49 +1180,49 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>64</v>
@@ -1223,15 +1231,15 @@
         <v>65</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -1245,7 +1253,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -1259,7 +1267,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -1293,7 +1301,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1336,43 +1344,42 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA23" sqref="AA23"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="58.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>71</v>
@@ -1404,54 +1411,42 @@
       <c r="Q1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>81</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="V1" t="s">
-        <v>85</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
         <v>28</v>
       </c>
       <c r="J2" t="s">
@@ -1481,38 +1476,23 @@
       <c r="R2" t="s">
         <v>28</v>
       </c>
-      <c r="S2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="S2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
@@ -1522,6 +1502,9 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
@@ -1555,38 +1538,23 @@
       <c r="R3" t="s">
         <v>13</v>
       </c>
-      <c r="S3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V3" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="S3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
@@ -1596,6 +1564,9 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>13</v>
       </c>
@@ -1629,38 +1600,23 @@
       <c r="R4" t="s">
         <v>13</v>
       </c>
-      <c r="S4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4" t="s">
-        <v>13</v>
-      </c>
-      <c r="U4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="S4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D5" t="s">
         <v>56</v>
       </c>
@@ -1670,6 +1626,9 @@
       <c r="F5" t="s">
         <v>56</v>
       </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
       <c r="H5" t="s">
         <v>56</v>
       </c>
@@ -1703,38 +1662,23 @@
       <c r="R5" t="s">
         <v>56</v>
       </c>
-      <c r="S5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T5" t="s">
-        <v>56</v>
-      </c>
-      <c r="U5" t="s">
-        <v>56</v>
-      </c>
-      <c r="V5" t="s">
-        <v>56</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="S5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1744,6 +1688,9 @@
       <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1774,7 +1721,7 @@
       <c r="Q6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" t="s">
         <v>28</v>
       </c>
       <c r="S6" s="1" t="s">
@@ -1786,29 +1733,14 @@
       <c r="U6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V6" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
@@ -1818,6 +1750,9 @@
       <c r="F7" t="s">
         <v>28</v>
       </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
       <c r="H7" t="s">
         <v>28</v>
       </c>
@@ -1851,36 +1786,21 @@
       <c r="R7" t="s">
         <v>28</v>
       </c>
-      <c r="S7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U7" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" t="s">
-        <v>28</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="S7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="D8" t="s">
@@ -1892,6 +1812,9 @@
       <c r="F8" t="s">
         <v>28</v>
       </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" t="s">
         <v>28</v>
       </c>
@@ -1925,38 +1848,23 @@
       <c r="R8" t="s">
         <v>28</v>
       </c>
-      <c r="S8" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" t="s">
-        <v>28</v>
-      </c>
-      <c r="U8" t="s">
-        <v>28</v>
-      </c>
-      <c r="V8" t="s">
-        <v>28</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="S8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D9" t="s">
         <v>56</v>
       </c>
@@ -1966,6 +1874,9 @@
       <c r="F9" t="s">
         <v>56</v>
       </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
       <c r="H9" t="s">
         <v>56</v>
       </c>
@@ -1999,38 +1910,23 @@
       <c r="R9" t="s">
         <v>56</v>
       </c>
-      <c r="S9" t="s">
-        <v>56</v>
-      </c>
-      <c r="T9" t="s">
-        <v>56</v>
-      </c>
-      <c r="U9" t="s">
-        <v>56</v>
-      </c>
-      <c r="V9" t="s">
-        <v>56</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="S9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
@@ -2040,6 +1936,9 @@
       <c r="F10" t="s">
         <v>28</v>
       </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" t="s">
         <v>28</v>
       </c>
@@ -2073,25 +1972,81 @@
       <c r="R10" t="s">
         <v>28</v>
       </c>
-      <c r="S10" t="s">
-        <v>28</v>
-      </c>
-      <c r="T10" t="s">
-        <v>28</v>
-      </c>
-      <c r="U10" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" t="s">
-        <v>28</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y10" s="1" t="s">
+      <c r="S10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D418CE29-40DC-476E-89CD-A42CEC26847E}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="90">
+      <c r="A2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2100,7 +2055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB93"/>
   <sheetViews>
@@ -2760,7 +2715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P82"/>
   <sheetViews>

--- a/source/resources/source-data/alert-sender.xlsx
+++ b/source/resources/source-data/alert-sender.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\source\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2435F8AC-7164-4008-A59F-E23D5246E6C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D12562-C280-4541-A783-89238EA13C45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,9 +369,6 @@
     <t>alert-sender</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/CapabilityStatement/hl7.fhir.us.davinci-alerts-0.0.0</t>
-  </si>
-  <si>
     <t>The Da Vinci Alert Sender **SHALL**:
 1. Support at least one use case defined in this Guide and listed in the [Scenarios](index.html#scenarios) Section.
 1. Implement the RESTful behavior according to the FHIR specification.
@@ -436,6 +433,9 @@
     <t>1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
 1. For security considerations specific to this guide refer to the  [Security](security.html) page for requirements and recommendations.
 1. A server **SHALL** reject any unauthorized requests by returning an `HTTP 401` unauthorized response code.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/ImplementationGuide/hl7.fhir.us.davinci-alerts-0.0.0</t>
   </si>
 </sst>
 </file>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -935,7 +935,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -959,7 +959,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="103.5" customHeight="1">
@@ -967,7 +967,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -1047,16 +1047,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="2" spans="1:23" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -1415,13 +1415,13 @@
         <v>81</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -2010,25 +2010,25 @@
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="90">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>

--- a/source/resources/source-data/alert-sender.xlsx
+++ b/source/resources/source-data/alert-sender.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\source\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D12562-C280-4541-A783-89238EA13C45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E1B1F7-C364-450B-BF25-519DC5D200E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="125">
   <si>
     <t>Element</t>
   </si>
@@ -391,18 +391,12 @@
     <t>Coverage</t>
   </si>
   <si>
-    <t>Subscription</t>
-  </si>
-  <si>
     <t>conf_Communication</t>
   </si>
   <si>
     <t>conf_Coverage</t>
   </si>
   <si>
-    <t>conf_Subscription</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core-3.0.0</t>
   </si>
   <si>
@@ -422,9 +416,6 @@
   </si>
   <si>
     <t>doc</t>
-  </si>
-  <si>
-    <t>Whether as a direct push based transaction or via subscription notification, a common  `transaction`  type “Alert Bundle” is the FHIR object that is exchanged between the Da Vinci Alert Actors.</t>
   </si>
   <si>
     <t>This Section describes the expected capabilities of the Da Vinci Alert Sender actor which is responsible for sending the alert, typically operated by the facility or organization where the event occurred. The complete list of FHIR profiles, RESTful operations, and search parameters supported by Da Vinci Alert Senders are defined.</t>
@@ -435,14 +426,45 @@
 1. A server **SHALL** reject any unauthorized requests by returning an `HTTP 401` unauthorized response code.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/ImplementationGuide/hl7.fhir.us.davinci-alerts-0.0.0</t>
+    <t>Da Vinci Alerts Bundle Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/alerts-bundle</t>
+  </si>
+  <si>
+    <t>Bundle</t>
+  </si>
+  <si>
+    <t>notify</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/OperationDefinition/notify</t>
+  </si>
+  <si>
+    <t>A server **SHALL** be capable of invoking the $notify operation to alert the Alert Recipient or Alert Intermediary of a patient event.
+`GET [base]/Communication/$notify`</t>
+  </si>
+  <si>
+    <t>A common  `transaction`  type “Alert Bundle” is the FHIR object that is exchanged between the Da Vinci Alert Actors.</t>
+  </si>
+  <si>
+    <t>conf_Bundle</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-coverage</t>
+  </si>
+  <si>
+    <t>HRex Coverage Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/ImplementationGuide/hl7.fhir.us.davinci-alerts-0.1.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,6 +535,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF032F62"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -559,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -587,6 +615,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -905,7 +934,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -935,7 +964,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -943,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -967,7 +996,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +1009,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1001,10 +1030,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -1020,7 +1049,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1060,14 +1089,33 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="F3" s="1"/>
+    <row r="3" spans="1:6" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
+      <c r="A4" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
@@ -1149,7 +1197,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1242,7 +1290,7 @@
         <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>20</v>
@@ -1267,7 +1315,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -1301,12 +1349,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
@@ -1329,10 +1378,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="E2" s="2"/>
+    <row r="2" spans="1:5" ht="60.75" thickBot="1">
+      <c r="A2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="E4" s="2"/>
@@ -1347,8 +1408,8 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C13" sqref="C13"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1357,6 +1418,7 @@
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="58.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="19" max="19" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -1415,13 +1477,13 @@
         <v>81</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1483,7 +1545,7 @@
         <v>28</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1855,7 +1917,7 @@
         <v>28</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -2010,25 +2072,25 @@
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="90">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="60">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -2036,7 +2098,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -2044,7 +2106,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>

--- a/source/resources/source-data/alert-sender.xlsx
+++ b/source/resources/source-data/alert-sender.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\source\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E1B1F7-C364-450B-BF25-519DC5D200E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9CA75F-31CC-49F1-8718-28AF36647FAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="129">
   <si>
     <t>Element</t>
   </si>
@@ -458,6 +458,18 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-alerts/ImplementationGuide/hl7.fhir.us.davinci-alerts-0.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/alerts-endpoint</t>
+  </si>
+  <si>
+    <t>Da Vinci Alerts Endpoint Profile</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>conf_Endpoint</t>
   </si>
 </sst>
 </file>
@@ -933,7 +945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1049,7 +1061,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1118,8 +1130,19 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="F5" s="1"/>
+    <row r="5" spans="1:6" s="1" customFormat="1">
+      <c r="A5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="F6" s="1"/>
@@ -1197,7 +1220,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1327,8 +1350,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
-      <c r="A5"/>
+    <row r="5" spans="1:23" s="1" customFormat="1">
+      <c r="A5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="R5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="20:23" ht="18">
       <c r="T36" s="7"/>
@@ -1405,11 +1440,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q14" sqref="Q14"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1419,9 +1454,10 @@
     <col min="3" max="3" width="58.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.140625" customWidth="1"/>
     <col min="19" max="19" width="37.42578125" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1485,8 +1521,11 @@
       <c r="U1" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1547,8 +1586,11 @@
       <c r="U2" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1609,8 +1651,11 @@
       <c r="U3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1671,8 +1716,11 @@
       <c r="U4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1733,8 +1781,11 @@
       <c r="U5" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1795,8 +1846,11 @@
       <c r="U6" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1857,8 +1911,11 @@
       <c r="U7" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1919,8 +1976,11 @@
       <c r="U8" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1981,8 +2041,11 @@
       <c r="U9" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2041,6 +2104,9 @@
         <v>28</v>
       </c>
       <c r="U10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2054,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D418CE29-40DC-476E-89CD-A42CEC26847E}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
